--- a/output/我的记账本.xlsx
+++ b/output/我的记账本.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -586,6 +586,126 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-20 14:28:06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>alipay history.jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>未知商品</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>未分类</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[]...</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-20 14:38:01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>alipay history.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>未知商品</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>未分类</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[]...</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-01-20 14:39:31</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>alipay history.jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>未知商品</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>未分类</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[]...</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-01-20 14:40:25</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>alipay history.jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>未知商品</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>未分类</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[]...</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
